--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gal-Galr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gal-Galr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.889856</v>
+        <v>2.256409</v>
       </c>
       <c r="H2">
-        <v>8.669568000000002</v>
+        <v>6.769227</v>
       </c>
       <c r="I2">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="J2">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3214300133120001</v>
+        <v>0.250973603843</v>
       </c>
       <c r="R2">
-        <v>2.892870119808001</v>
+        <v>2.258762434587</v>
       </c>
       <c r="S2">
-        <v>0.06333786583275691</v>
+        <v>0.08335947696385336</v>
       </c>
       <c r="T2">
-        <v>0.06333786583275693</v>
+        <v>0.08335947696385337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>4.252193</v>
       </c>
       <c r="I3">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="J3">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>1.418876012433</v>
       </c>
       <c r="S3">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402688</v>
       </c>
       <c r="T3">
-        <v>0.03106554210417268</v>
+        <v>0.05236352458402689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8772793333333334</v>
+        <v>2.140981333333333</v>
       </c>
       <c r="H4">
-        <v>2.631838</v>
+        <v>6.422944</v>
       </c>
       <c r="I4">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="J4">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.09757714840866669</v>
+        <v>0.2381349307626667</v>
       </c>
       <c r="R4">
-        <v>0.8781943356780001</v>
+        <v>2.143214376864</v>
       </c>
       <c r="S4">
-        <v>0.01922760189868183</v>
+        <v>0.0790951836019268</v>
       </c>
       <c r="T4">
-        <v>0.01922760189868184</v>
+        <v>0.07909518360192681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.84844466666667</v>
+        <v>20.12912933333333</v>
       </c>
       <c r="H5">
-        <v>119.545334</v>
+        <v>60.387388</v>
       </c>
       <c r="I5">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="J5">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>4.432222954939333</v>
+        <v>2.238902668358667</v>
       </c>
       <c r="R5">
-        <v>39.890006594454</v>
+        <v>20.150124015228</v>
       </c>
       <c r="S5">
-        <v>0.8733706599710749</v>
+        <v>0.7436389825445764</v>
       </c>
       <c r="T5">
-        <v>0.873370659971075</v>
+        <v>0.7436389825445765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5930623333333332</v>
+        <v>1.124498666666667</v>
       </c>
       <c r="H6">
-        <v>1.779187</v>
+        <v>3.373496</v>
       </c>
       <c r="I6">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="J6">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.06596454414966665</v>
+        <v>0.1250746131973333</v>
       </c>
       <c r="R6">
-        <v>0.5936808973469999</v>
+        <v>1.125671518776</v>
       </c>
       <c r="S6">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
       <c r="T6">
-        <v>0.01299833019331358</v>
+        <v>0.04154283230561651</v>
       </c>
     </row>
   </sheetData>
